--- a/Brukerstotte/Teknisk_Dokumentasjon_Eksame2023.xlsx
+++ b/Brukerstotte/Teknisk_Dokumentasjon_Eksame2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/chmaa004_osloskolen_no/Documents/Chris_Kuben_IMC/Nettside eksamen/Brukerstøtte/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/chmaa004_osloskolen_no/Documents/Chris_Kuben_IMC/Nettside eksamen/Brukerstotte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{4F0D1809-4839-424D-9775-89CD4F64709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{772F5880-A3C0-43AD-9012-0AC93ABD564B}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{4F0D1809-4839-424D-9775-89CD4F64709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3082D7BA-4144-457E-B1DA-11721C9FD9F6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B4687DE1-2CF7-416B-9CFC-6E0907D82232}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{B4687DE1-2CF7-416B-9CFC-6E0907D82232}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>PHP Admin</t>
   </si>
@@ -90,6 +90,48 @@
   </si>
   <si>
     <t>mySQL_Root_Pass:</t>
+  </si>
+  <si>
+    <t>Chris_Drift</t>
+  </si>
+  <si>
+    <t>Drift123</t>
+  </si>
+  <si>
+    <t>Domene brukere:</t>
+  </si>
+  <si>
+    <t>Christopher:</t>
+  </si>
+  <si>
+    <t>Asdqwe123</t>
+  </si>
+  <si>
+    <t>User:</t>
+  </si>
+  <si>
+    <t>adm.christopher</t>
+  </si>
+  <si>
+    <t>Debian vm</t>
+  </si>
+  <si>
+    <t>debianChris</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>user:</t>
+  </si>
+  <si>
+    <t>christopher</t>
+  </si>
+  <si>
+    <t>passord</t>
+  </si>
+  <si>
+    <t>full bruker</t>
   </si>
 </sst>
 </file>
@@ -111,7 +153,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +172,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -143,11 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,6 +226,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7729222E-7329-4C0C-97ED-9ABBD3D57BDD}">
-  <dimension ref="B3:K14"/>
+  <dimension ref="B3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,6 +692,122 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="H18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Brukerstotte/Teknisk_Dokumentasjon_Eksame2023.xlsx
+++ b/Brukerstotte/Teknisk_Dokumentasjon_Eksame2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/chmaa004_osloskolen_no/Documents/Chris_Kuben_IMC/Nettside eksamen/Brukerstotte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{4F0D1809-4839-424D-9775-89CD4F64709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3082D7BA-4144-457E-B1DA-11721C9FD9F6}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{4F0D1809-4839-424D-9775-89CD4F64709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F67A5EC-EA38-4E92-9F0F-9CB2FCA2F3D0}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{B4687DE1-2CF7-416B-9CFC-6E0907D82232}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B4687DE1-2CF7-416B-9CFC-6E0907D82232}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>PHP Admin</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>full bruker</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -226,10 +229,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7729222E-7329-4C0C-97ED-9ABBD3D57BDD}">
-  <dimension ref="B3:K32"/>
+  <dimension ref="B3:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,13 +697,13 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
@@ -718,13 +717,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -736,7 +735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
@@ -748,19 +747,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
@@ -769,7 +768,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
@@ -778,12 +777,12 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
@@ -792,7 +791,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
@@ -801,12 +800,15 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
